--- a/Master-functional-testcases/registration-client/TC_Template.xlsx
+++ b/Master-functional-testcases/registration-client/TC_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t xml:space="preserve">TestCase_No </t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Need Clarificaiton</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -620,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +681,9 @@
       <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -694,7 +702,9 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -713,7 +723,9 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -732,7 +744,9 @@
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -751,7 +765,9 @@
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -770,7 +786,9 @@
       <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -789,7 +807,9 @@
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -808,7 +828,9 @@
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -827,7 +849,9 @@
       <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -846,7 +870,9 @@
       <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -869,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
